--- a/forecast_summary_B0C4CKCRYW.xlsx
+++ b/forecast_summary_B0C4CKCRYW.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>30.64551104597179</v>
       </c>
       <c r="D2" t="n">
-        <v>43.17720960934647</v>
+        <v>43.41513697686737</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>34.69297283771818</v>
       </c>
       <c r="D3" t="n">
-        <v>46.93425240005126</v>
+        <v>47.2790336633965</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>31.62403980837826</v>
       </c>
       <c r="D4" t="n">
-        <v>44.12060244168492</v>
+        <v>44.06994971997637</v>
       </c>
       <c r="E4" t="n">
         <v>14</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>24.03048821936163</v>
       </c>
       <c r="D5" t="n">
-        <v>35.98272227616816</v>
+        <v>35.71915533685193</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>16.64172678010877</v>
       </c>
       <c r="D6" t="n">
-        <v>28.80352978734059</v>
+        <v>29.57675888869553</v>
       </c>
       <c r="E6" t="n">
         <v>11</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>13.02541764314245</v>
       </c>
       <c r="D7" t="n">
-        <v>25.57325862932187</v>
+        <v>25.69929788638848</v>
       </c>
       <c r="E7" t="n">
         <v>12</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>13.54199507671341</v>
       </c>
       <c r="D8" t="n">
-        <v>26.27444682129002</v>
+        <v>26.29844542683261</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>15.66760285614049</v>
       </c>
       <c r="D9" t="n">
-        <v>28.64254057161806</v>
+        <v>28.06601450784478</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
         <v>16.28755456237388</v>
       </c>
       <c r="D10" t="n">
-        <v>27.94573488121297</v>
+        <v>29.56776557949832</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>14.39336694164462</v>
       </c>
       <c r="D11" t="n">
-        <v>26.67361891505305</v>
+        <v>25.67419256046198</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>12.14147884289753</v>
       </c>
       <c r="D12" t="n">
-        <v>25.29302032460127</v>
+        <v>23.88887621648</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>13.10825183055962</v>
       </c>
       <c r="D13" t="n">
-        <v>24.81565695636514</v>
+        <v>26.7324727907015</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>18.86154889303525</v>
       </c>
       <c r="D14" t="n">
-        <v>31.31185259970632</v>
+        <v>31.86102095376918</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>26.94006781703391</v>
       </c>
       <c r="D15" t="n">
-        <v>39.60284689388443</v>
+        <v>38.96028443190471</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>32.58020726576548</v>
       </c>
       <c r="D16" t="n">
-        <v>44.58869428262679</v>
+        <v>45.51930228275439</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>32.98293859430893</v>
       </c>
       <c r="D17" t="n">
-        <v>45.61211862975068</v>
+        <v>46.1231599500315</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>29.94252098016332</v>
       </c>
       <c r="D18" t="n">
-        <v>43.48801224960293</v>
+        <v>42.98116872101951</v>
       </c>
       <c r="E18" t="n">
         <v>11</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>27.87068719351689</v>
       </c>
       <c r="D19" t="n">
-        <v>40.45909708010272</v>
+        <v>40.12662928591519</v>
       </c>
       <c r="E19" t="n">
         <v>11</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>29.00306018898951</v>
       </c>
       <c r="D20" t="n">
-        <v>40.5759344583044</v>
+        <v>42.36294429178649</v>
       </c>
       <c r="E20" t="n">
         <v>11</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>30.87632950818678</v>
       </c>
       <c r="D21" t="n">
-        <v>43.00260883549414</v>
+        <v>42.718004164782</v>
       </c>
       <c r="E21" t="n">
         <v>11</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B760I AORUS PRO</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>367</t>
         </is>
       </c>
     </row>
